--- a/papers/8tth/mtcars.xlsx
+++ b/papers/8tth/mtcars.xlsx
@@ -9,17 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mtcars" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="mtcars" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">mtcars!$A$1:$L$33</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>model</t>
   </si>
@@ -151,13 +160,115 @@
   </si>
   <si>
     <t>Volvo 142E</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of hp</t>
+  </si>
+  <si>
+    <t>Sum of cyl</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Y</t>
+  </si>
+  <si>
+    <t>Residuals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +429,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,8 +634,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -621,6 +756,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -666,9 +821,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -725,6 +903,2119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>mpg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs horspower</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.86683814523184599"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-880359968"/>
+        <c:axId val="-880355072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count of hp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-968976544"/>
+        <c:axId val="-968982528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-880359968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880355072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-880355072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880359968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-968982528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-968976544"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-968976544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-968982528"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1 Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-752377312"/>
+        <c:axId val="-752373504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-752377312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-752373504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-752373504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-752377312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Onyango Ogolla" refreshedDate="44540.220763194447" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="33">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L1048576" sheet="mtcars"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="model" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="mpg" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="10.4" maxValue="33.9" count="26">
+        <n v="21"/>
+        <n v="22.8"/>
+        <n v="21.4"/>
+        <n v="18.7"/>
+        <n v="18.100000000000001"/>
+        <n v="14.3"/>
+        <n v="24.4"/>
+        <n v="19.2"/>
+        <n v="17.8"/>
+        <n v="16.399999999999999"/>
+        <n v="17.3"/>
+        <n v="15.2"/>
+        <n v="10.4"/>
+        <n v="14.7"/>
+        <n v="32.4"/>
+        <n v="30.4"/>
+        <n v="33.9"/>
+        <n v="21.5"/>
+        <n v="15.5"/>
+        <n v="13.3"/>
+        <n v="27.3"/>
+        <n v="26"/>
+        <n v="15.8"/>
+        <n v="19.7"/>
+        <n v="15"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cyl" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="8"/>
+    </cacheField>
+    <cacheField name="disp" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="71.099999999999994" maxValue="472"/>
+    </cacheField>
+    <cacheField name="hp" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="335"/>
+    </cacheField>
+    <cacheField name="drat" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.76" maxValue="4.93"/>
+    </cacheField>
+    <cacheField name="wt" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.5129999999999999" maxValue="5.4240000000000004"/>
+    </cacheField>
+    <cacheField name="qsec" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="14.5" maxValue="22.9"/>
+    </cacheField>
+    <cacheField name="vs" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="am" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="gear" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="carb" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="33">
+  <r>
+    <s v="Mazda RX4"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="160"/>
+    <n v="110"/>
+    <n v="3.9"/>
+    <n v="2.62"/>
+    <n v="16.46"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Mazda RX4 Wag"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="160"/>
+    <n v="110"/>
+    <n v="3.9"/>
+    <n v="2.875"/>
+    <n v="17.02"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Datsun 710"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="108"/>
+    <n v="93"/>
+    <n v="3.85"/>
+    <n v="2.3199999999999998"/>
+    <n v="18.61"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Hornet 4 Drive"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="258"/>
+    <n v="110"/>
+    <n v="3.08"/>
+    <n v="3.2149999999999999"/>
+    <n v="19.440000000000001"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Hornet Sportabout"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="360"/>
+    <n v="175"/>
+    <n v="3.15"/>
+    <n v="3.44"/>
+    <n v="17.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Valiant"/>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="225"/>
+    <n v="105"/>
+    <n v="2.76"/>
+    <n v="3.46"/>
+    <n v="20.22"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Duster 360"/>
+    <x v="5"/>
+    <n v="8"/>
+    <n v="360"/>
+    <n v="245"/>
+    <n v="3.21"/>
+    <n v="3.57"/>
+    <n v="15.84"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Merc 240D"/>
+    <x v="6"/>
+    <n v="4"/>
+    <n v="146.69999999999999"/>
+    <n v="62"/>
+    <n v="3.69"/>
+    <n v="3.19"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Merc 230"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="140.80000000000001"/>
+    <n v="95"/>
+    <n v="3.92"/>
+    <n v="3.15"/>
+    <n v="22.9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Merc 280"/>
+    <x v="7"/>
+    <n v="6"/>
+    <n v="167.6"/>
+    <n v="123"/>
+    <n v="3.92"/>
+    <n v="3.44"/>
+    <n v="18.3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Merc 280C"/>
+    <x v="8"/>
+    <n v="6"/>
+    <n v="167.6"/>
+    <n v="123"/>
+    <n v="3.92"/>
+    <n v="3.44"/>
+    <n v="18.899999999999999"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Merc 450SE"/>
+    <x v="9"/>
+    <n v="8"/>
+    <n v="275.8"/>
+    <n v="180"/>
+    <n v="3.07"/>
+    <n v="4.07"/>
+    <n v="17.399999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="Merc 450SL"/>
+    <x v="10"/>
+    <n v="8"/>
+    <n v="275.8"/>
+    <n v="180"/>
+    <n v="3.07"/>
+    <n v="3.73"/>
+    <n v="17.600000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="Merc 450SLC"/>
+    <x v="11"/>
+    <n v="8"/>
+    <n v="275.8"/>
+    <n v="180"/>
+    <n v="3.07"/>
+    <n v="3.78"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="Cadillac Fleetwood"/>
+    <x v="12"/>
+    <n v="8"/>
+    <n v="472"/>
+    <n v="205"/>
+    <n v="2.93"/>
+    <n v="5.25"/>
+    <n v="17.98"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Lincoln Continental"/>
+    <x v="12"/>
+    <n v="8"/>
+    <n v="460"/>
+    <n v="215"/>
+    <n v="3"/>
+    <n v="5.4240000000000004"/>
+    <n v="17.82"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Chrysler Imperial"/>
+    <x v="13"/>
+    <n v="8"/>
+    <n v="440"/>
+    <n v="230"/>
+    <n v="3.23"/>
+    <n v="5.3449999999999998"/>
+    <n v="17.420000000000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Fiat 128"/>
+    <x v="14"/>
+    <n v="4"/>
+    <n v="78.7"/>
+    <n v="66"/>
+    <n v="4.08"/>
+    <n v="2.2000000000000002"/>
+    <n v="19.47"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Honda Civic"/>
+    <x v="15"/>
+    <n v="4"/>
+    <n v="75.7"/>
+    <n v="52"/>
+    <n v="4.93"/>
+    <n v="1.615"/>
+    <n v="18.52"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Toyota Corolla"/>
+    <x v="16"/>
+    <n v="4"/>
+    <n v="71.099999999999994"/>
+    <n v="65"/>
+    <n v="4.22"/>
+    <n v="1.835"/>
+    <n v="19.899999999999999"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Toyota Corona"/>
+    <x v="17"/>
+    <n v="4"/>
+    <n v="120.1"/>
+    <n v="97"/>
+    <n v="3.7"/>
+    <n v="2.4649999999999999"/>
+    <n v="20.010000000000002"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Dodge Challenger"/>
+    <x v="18"/>
+    <n v="8"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="2.76"/>
+    <n v="3.52"/>
+    <n v="16.87"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="AMC Javelin"/>
+    <x v="11"/>
+    <n v="8"/>
+    <n v="304"/>
+    <n v="150"/>
+    <n v="3.15"/>
+    <n v="3.4350000000000001"/>
+    <n v="17.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Camaro Z28"/>
+    <x v="19"/>
+    <n v="8"/>
+    <n v="350"/>
+    <n v="245"/>
+    <n v="3.73"/>
+    <n v="3.84"/>
+    <n v="15.41"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Pontiac Firebird"/>
+    <x v="7"/>
+    <n v="8"/>
+    <n v="400"/>
+    <n v="175"/>
+    <n v="3.08"/>
+    <n v="3.8450000000000002"/>
+    <n v="17.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Fiat X1-9"/>
+    <x v="20"/>
+    <n v="4"/>
+    <n v="79"/>
+    <n v="66"/>
+    <n v="4.08"/>
+    <n v="1.9350000000000001"/>
+    <n v="18.899999999999999"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Porsche 914-2"/>
+    <x v="21"/>
+    <n v="4"/>
+    <n v="120.3"/>
+    <n v="91"/>
+    <n v="4.43"/>
+    <n v="2.14"/>
+    <n v="16.7"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Lotus Europa"/>
+    <x v="15"/>
+    <n v="4"/>
+    <n v="95.1"/>
+    <n v="113"/>
+    <n v="3.77"/>
+    <n v="1.5129999999999999"/>
+    <n v="16.899999999999999"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Ford Pantera L"/>
+    <x v="22"/>
+    <n v="8"/>
+    <n v="351"/>
+    <n v="264"/>
+    <n v="4.22"/>
+    <n v="3.17"/>
+    <n v="14.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Ferrari Dino"/>
+    <x v="23"/>
+    <n v="6"/>
+    <n v="145"/>
+    <n v="175"/>
+    <n v="3.62"/>
+    <n v="2.77"/>
+    <n v="15.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Maserati Bora"/>
+    <x v="24"/>
+    <n v="8"/>
+    <n v="301"/>
+    <n v="335"/>
+    <n v="3.54"/>
+    <n v="3.57"/>
+    <n v="14.6"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <s v="Volvo 142E"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="121"/>
+    <n v="109"/>
+    <n v="4.1100000000000003"/>
+    <n v="2.78"/>
+    <n v="18.600000000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item x="12"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="23"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of cyl" fld="2" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,25 +3281,1030 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="11.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>19.2</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>19.7</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>21.4</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>27.3</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>30.4</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="6">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.5611707333426148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.31491259196028804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.28512618291508318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5.1524202978434595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>280.66899671052624</v>
+      </c>
+      <c r="D12" s="8">
+        <v>280.66899671052624</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10.572358402866421</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3.5170098860695239E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="8">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>610.59100328947352</v>
+      </c>
+      <c r="D13" s="8">
+        <v>26.547434925629283</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9">
+        <v>891.25999999999976</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="8">
+        <v>27.866940789473681</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.6015090551954732</v>
+      </c>
+      <c r="D17" s="8">
+        <v>10.711836937034919</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.0566580320541406E-10</v>
+      </c>
+      <c r="F17" s="8">
+        <v>22.485309283869494</v>
+      </c>
+      <c r="G17" s="8">
+        <v>33.248572295077864</v>
+      </c>
+      <c r="H17" s="8">
+        <v>22.485309283869494</v>
+      </c>
+      <c r="I17" s="8">
+        <v>33.248572295077864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="9">
+        <v>-0.98067434210526339</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.30160523414160695</v>
+      </c>
+      <c r="D18" s="9">
+        <v>-3.2515163236352391</v>
+      </c>
+      <c r="E18" s="9">
+        <v>3.5170098860695239E-3</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-1.6045923050545179</v>
+      </c>
+      <c r="G18" s="9">
+        <v>-0.356756379156009</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-1.6045923050545179</v>
+      </c>
+      <c r="I18" s="9">
+        <v>-0.356756379156009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8">
+        <v>12.176151315789467</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-1.7761513157894662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-6.7215460526315738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-5.7215460526315738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-5.3215460526315752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-5.0215460526315745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8">
+        <v>12.176151315789467</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3.0238486842105328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-4.5215460526315745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-4.2215460526315738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>9</v>
+      </c>
+      <c r="B33" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C33" s="8">
+        <v>-3.6215460526315759</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>10</v>
+      </c>
+      <c r="B34" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C34" s="8">
+        <v>-2.7215460526315738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>11</v>
+      </c>
+      <c r="B35" s="8">
+        <v>21.982894736842098</v>
+      </c>
+      <c r="C35" s="8">
+        <v>-4.1828947368420977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>12</v>
+      </c>
+      <c r="B36" s="8">
+        <v>21.982894736842098</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-3.882894736842097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>13</v>
+      </c>
+      <c r="B37" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-1.3215460526315752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>14</v>
+      </c>
+      <c r="B38" s="8">
+        <v>14.137499999999994</v>
+      </c>
+      <c r="C38" s="8">
+        <v>5.0625000000000053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>15</v>
+      </c>
+      <c r="B39" s="8">
+        <v>21.982894736842098</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-2.2828947368420991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>16</v>
+      </c>
+      <c r="B40" s="8">
+        <v>16.09884868421052</v>
+      </c>
+      <c r="C40" s="8">
+        <v>4.9011513157894804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>17</v>
+      </c>
+      <c r="B41" s="8">
+        <v>18.060197368421047</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3.3398026315789515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>18</v>
+      </c>
+      <c r="B42" s="8">
+        <v>23.944243421052626</v>
+      </c>
+      <c r="C42" s="8">
+        <v>-2.4442434210526258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>19</v>
+      </c>
+      <c r="B43" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2.7784539473684262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>20</v>
+      </c>
+      <c r="B44" s="8">
+        <v>23.944243421052626</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.45575657894737276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>21</v>
+      </c>
+      <c r="B45" s="8">
+        <v>23.944243421052626</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2.0557565789473742</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>22</v>
+      </c>
+      <c r="B46" s="8">
+        <v>23.944243421052626</v>
+      </c>
+      <c r="C46" s="8">
+        <v>3.3557565789473749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>23</v>
+      </c>
+      <c r="B47" s="8">
+        <v>20.021546052631574</v>
+      </c>
+      <c r="C47" s="8">
+        <v>10.378453947368424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>24</v>
+      </c>
+      <c r="B48" s="8">
+        <v>23.944243421052626</v>
+      </c>
+      <c r="C48" s="8">
+        <v>8.4557565789473728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>25</v>
+      </c>
+      <c r="B49" s="9">
+        <v>23.944243421052626</v>
+      </c>
+      <c r="C49" s="9">
+        <v>9.9557565789473728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>30.4</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>32.4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="4">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
